--- a/doc/ue_android_input.xlsx
+++ b/doc/ue_android_input.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A6CEF5-58F4-4C0B-8BD8-0E4622738C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E947ED-C6DA-47E2-9223-388D307C776C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="备注" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
   <si>
     <t>2022-12-08 17:49:15.486 1426-1498/? E/ActivityManager: ANR in com.YourCompany.Test (com.YourCompany.Test/com.epicgames.ue4.GameActivity)</t>
   </si>
@@ -448,6 +448,14 @@
   </si>
   <si>
     <t>推荐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个里面加锁挨个处理Input消息，如果对应的Slate消息卡住，就会导致HandleInputCB返回卡了，而产生ANR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个处理还不是逻辑的TICK，仅仅是TICK中Slate处理的那部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -802,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1254,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B2:M73"/>
+  <dimension ref="B2:M75"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1554,6 +1562,16 @@
         <v>117</v>
       </c>
     </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D74" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D75" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ue_android_input.xlsx
+++ b/doc/ue_android_input.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E947ED-C6DA-47E2-9223-388D307C776C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D74235-38D3-49B7-886B-571F19F7B8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="备注" sheetId="1" r:id="rId1"/>
     <sheet name="NDK" sheetId="2" r:id="rId2"/>
-    <sheet name="UE输入绑定" sheetId="3" r:id="rId3"/>
+    <sheet name="运行原理" sheetId="4" r:id="rId3"/>
+    <sheet name="UE输入绑定" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="140">
   <si>
     <t>2022-12-08 17:49:15.486 1426-1498/? E/ActivityManager: ANR in com.YourCompany.Test (com.YourCompany.Test/com.epicgames.ue4.GameActivity)</t>
   </si>
@@ -456,6 +457,18 @@
   </si>
   <si>
     <t>！！！这个处理还不是逻辑的TICK，仅仅是TICK中Slate处理的那部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android底层NDK初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NDK的输入回调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层不断的调用Alpooer_PollAll获取消息，回调到Android的NDK OnInputEvent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,6 +556,194 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE04C336-A8A7-436B-9961-F524F31368B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="609600"/>
+          <a:ext cx="9220200" cy="5981700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8DE7016-D9B5-46C7-B764-B2CE59E1F56D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1381125" y="6981825"/>
+          <a:ext cx="7239000" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{942B7B50-74DB-4DEB-B1EC-6E3FE42E915D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1390650" y="10477500"/>
+          <a:ext cx="10448925" cy="4333875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1261,10 +1462,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D47715-0386-46D5-8918-9D6EFD7D8367}">
+  <dimension ref="B3:B57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_android_input.xlsx
+++ b/doc/ue_android_input.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D74235-38D3-49B7-886B-571F19F7B8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD608C8-F4FE-464B-A5FA-D5CC6AEF4A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="备注" sheetId="1" r:id="rId1"/>
     <sheet name="NDK" sheetId="2" r:id="rId2"/>
     <sheet name="运行原理" sheetId="4" r:id="rId3"/>
     <sheet name="UE输入绑定" sheetId="3" r:id="rId4"/>
+    <sheet name="优化" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1465,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D47715-0386-46D5-8918-9D6EFD7D8367}">
   <dimension ref="B3:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
@@ -1811,4 +1812,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{585E7AFC-0725-43A8-9C53-4B929DCB7CD0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>